--- a/data/trans_orig/BARTHEL_R3-Clase-trans_orig.xlsx
+++ b/data/trans_orig/BARTHEL_R3-Clase-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>4168</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>946</v>
+        <v>955</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>10223</v>
+        <v>9738</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.06971693096460296</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.01582181316749124</v>
+        <v>0.01597460961675512</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.171002037280883</v>
+        <v>0.1628814161203489</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>4</v>
@@ -765,19 +765,19 @@
         <v>3890</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>907</v>
+        <v>1247</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>9164</v>
+        <v>9841</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1309432245621739</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.03052841736432876</v>
+        <v>0.04196021178727482</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.3084653177566977</v>
+        <v>0.3312484775881848</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>8</v>
@@ -786,19 +786,19 @@
         <v>8058</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>3854</v>
+        <v>3515</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>15355</v>
+        <v>14756</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.09004199361826312</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.04306409957824017</v>
+        <v>0.03927911119201262</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1715793342333014</v>
+        <v>0.1648788722396332</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>55616</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>49561</v>
+        <v>50046</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>58838</v>
+        <v>58829</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.930283069035397</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8289979627191171</v>
+        <v>0.8371185838796514</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9841781868325088</v>
+        <v>0.9840253903832449</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>26</v>
@@ -836,19 +836,19 @@
         <v>25819</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>20545</v>
+        <v>19868</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>28802</v>
+        <v>28462</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.8690567754378261</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.6915346822433022</v>
+        <v>0.6687515224118147</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9694715826356712</v>
+        <v>0.9580397882127252</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>76</v>
@@ -857,19 +857,19 @@
         <v>81435</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>74138</v>
+        <v>74737</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>85639</v>
+        <v>85978</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9099580063817369</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8284206657666987</v>
+        <v>0.8351211277603661</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9569359004217598</v>
+        <v>0.9607208888079873</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>5345</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>1809</v>
+        <v>1891</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>11809</v>
+        <v>11503</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1051520747894715</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.03559235798747491</v>
+        <v>0.03720949957189991</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2323293941865484</v>
+        <v>0.226295425669089</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>3</v>
@@ -982,19 +982,19 @@
         <v>3248</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>943</v>
+        <v>907</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>7480</v>
+        <v>7731</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2057277436256637</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.05973466275274472</v>
+        <v>0.05747427314127206</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.4738483354748477</v>
+        <v>0.489719208871193</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>8</v>
@@ -1003,19 +1003,19 @@
         <v>8592</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>4031</v>
+        <v>3831</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>14972</v>
+        <v>15079</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1289851896336478</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.06050898668915589</v>
+        <v>0.05751396713735588</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2247459624668099</v>
+        <v>0.2263576397594601</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>45485</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>39021</v>
+        <v>39327</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>49021</v>
+        <v>48939</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.8948479252105285</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.7676706058134519</v>
+        <v>0.773704574330911</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9644076420125252</v>
+        <v>0.9627905004281001</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>12</v>
@@ -1053,19 +1053,19 @@
         <v>12538</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>8306</v>
+        <v>8055</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>14843</v>
+        <v>14879</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.7942722563743363</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.5261516645251522</v>
+        <v>0.5102807911288064</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9402653372472554</v>
+        <v>0.9425257268587279</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>58</v>
@@ -1074,19 +1074,19 @@
         <v>58024</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>51644</v>
+        <v>51537</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>62585</v>
+        <v>62785</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.8710148103663522</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.7752540375331902</v>
+        <v>0.7736423602405399</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9394910133108442</v>
+        <v>0.9424860328626441</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>9617</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>4553</v>
+        <v>5208</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>15516</v>
+        <v>15805</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1340269822481789</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.06344895513292634</v>
+        <v>0.0725806069162899</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2162394058564256</v>
+        <v>0.2202695653840268</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>4</v>
@@ -1199,19 +1199,19 @@
         <v>4473</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>1164</v>
+        <v>1161</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>9884</v>
+        <v>9783</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1842574817176131</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.04793427346823652</v>
+        <v>0.04781775055222755</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.4071777241778796</v>
+        <v>0.4030036817705081</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>15</v>
@@ -1220,19 +1220,19 @@
         <v>14090</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>8506</v>
+        <v>8766</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>22753</v>
+        <v>21740</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1467247586693457</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.08857188838512438</v>
+        <v>0.0912790153140465</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2369339365704499</v>
+        <v>0.2263880205503585</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>62137</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>56238</v>
+        <v>55949</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>67201</v>
+        <v>66546</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.8659730177518211</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.7837605941435745</v>
+        <v>0.7797304346159746</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9365510448670739</v>
+        <v>0.9274193930837101</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>20</v>
@@ -1270,19 +1270,19 @@
         <v>19802</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>14391</v>
+        <v>14492</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>23111</v>
+        <v>23114</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.815742518282387</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.59282227582212</v>
+        <v>0.596996318229492</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9520657265317635</v>
+        <v>0.9521822494477724</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>86</v>
@@ -1291,19 +1291,19 @@
         <v>81940</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>73277</v>
+        <v>74290</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>87524</v>
+        <v>87264</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.8532752413306544</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.76306606342955</v>
+        <v>0.7736119794496411</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9114281116148757</v>
+        <v>0.9087209846859534</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>36684</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>27570</v>
+        <v>26840</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>47793</v>
+        <v>48013</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1410535460193943</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1060081932475091</v>
+        <v>0.1032039035988756</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1837699861616642</v>
+        <v>0.1846150006022019</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>12</v>
@@ -1416,19 +1416,19 @@
         <v>13089</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>7723</v>
+        <v>7482</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>20948</v>
+        <v>21715</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1526397572014717</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.09006215885903929</v>
+        <v>0.08725386644102637</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.244281160995882</v>
+        <v>0.2532254782421063</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>52</v>
@@ -1437,19 +1437,19 @@
         <v>49773</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>38148</v>
+        <v>38439</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>61844</v>
+        <v>62281</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1439265145517036</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1103117825433402</v>
+        <v>0.1111514896272232</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1788307958280084</v>
+        <v>0.1800945388131011</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>223388</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>212279</v>
+        <v>212059</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>232502</v>
+        <v>233232</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8589464539806058</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8162300138383358</v>
+        <v>0.8153849993977981</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.893991806752491</v>
+        <v>0.8967960964011243</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>76</v>
@@ -1487,19 +1487,19 @@
         <v>72663</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>64804</v>
+        <v>64037</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>78029</v>
+        <v>78270</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8473602427985283</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.755718839004118</v>
+        <v>0.7467745217578937</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9099378411409607</v>
+        <v>0.9127461335589736</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>313</v>
@@ -1508,19 +1508,19 @@
         <v>296051</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>283980</v>
+        <v>283543</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>307676</v>
+        <v>307385</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.8560734854482964</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.821169204171992</v>
+        <v>0.8199054611868992</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8896882174566598</v>
+        <v>0.8888485103727769</v>
       </c>
     </row>
     <row r="15">
@@ -1612,19 +1612,19 @@
         <v>11200</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>6084</v>
+        <v>6339</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>17498</v>
+        <v>17649</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2019314434536192</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1096881087526332</v>
+        <v>0.1142815247205972</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.3154705739283337</v>
+        <v>0.3182074135482544</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>24</v>
@@ -1633,19 +1633,19 @@
         <v>26657</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>18885</v>
+        <v>18138</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>36533</v>
+        <v>36751</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.276957043943138</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1962078125876609</v>
+        <v>0.1884513807700646</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.3795671021453685</v>
+        <v>0.3818328488705817</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>36</v>
@@ -1654,19 +1654,19 @@
         <v>37857</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>27528</v>
+        <v>27519</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>50085</v>
+        <v>49395</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2495285461679546</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1814424252178649</v>
+        <v>0.1813853138341788</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.3301286363100497</v>
+        <v>0.3255752158385323</v>
       </c>
     </row>
     <row r="17">
@@ -1683,19 +1683,19 @@
         <v>44265</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>37967</v>
+        <v>37816</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>49381</v>
+        <v>49126</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.7980685565463808</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.6845294260716662</v>
+        <v>0.6817925864517456</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.8903118912473663</v>
+        <v>0.8857184752794027</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>68</v>
@@ -1704,19 +1704,19 @@
         <v>69593</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>59717</v>
+        <v>59499</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>77365</v>
+        <v>78112</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.7230429560568621</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.6204328978546311</v>
+        <v>0.6181671511294182</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8037921874123392</v>
+        <v>0.8115486192299354</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>115</v>
@@ -1725,19 +1725,19 @@
         <v>113858</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>101630</v>
+        <v>102320</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>124187</v>
+        <v>124196</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.7504714538320454</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.66987136368995</v>
+        <v>0.6744247841614677</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.8185575747821351</v>
+        <v>0.8186146861658212</v>
       </c>
     </row>
     <row r="18">
@@ -1842,19 +1842,19 @@
         <v>86546</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>71419</v>
+        <v>70236</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>104935</v>
+        <v>104863</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.2036048019242353</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1680176966636142</v>
+        <v>0.1652337098686522</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2468661949997196</v>
+        <v>0.2466966049678641</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>80</v>
@@ -1863,19 +1863,19 @@
         <v>86546</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>68867</v>
+        <v>71028</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>103201</v>
+        <v>106014</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.2018737286537705</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1606353917407162</v>
+        <v>0.1656769699736954</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2407222914589278</v>
+        <v>0.2472827001482118</v>
       </c>
     </row>
     <row r="20">
@@ -1905,19 +1905,19 @@
         <v>338524</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>320135</v>
+        <v>320207</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>353651</v>
+        <v>354834</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.7963951980757646</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.7531338050002804</v>
+        <v>0.7533033950321358</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.8319823033363858</v>
+        <v>0.8347662901313476</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>336</v>
@@ -1926,19 +1926,19 @@
         <v>342169</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>325514</v>
+        <v>322701</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>359848</v>
+        <v>357687</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.7981262713462295</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.7592777085410719</v>
+        <v>0.7527172998517883</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.8393646082592839</v>
+        <v>0.8343230300263046</v>
       </c>
     </row>
     <row r="21">
@@ -2030,19 +2030,19 @@
         <v>67014</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>53668</v>
+        <v>54285</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>83352</v>
+        <v>82973</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.13361387270193</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1070048137771232</v>
+        <v>0.1082345389823212</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1661879739884901</v>
+        <v>0.165432090567562</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>127</v>
@@ -2051,19 +2051,19 @@
         <v>137903</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>117735</v>
+        <v>118432</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>161976</v>
+        <v>162406</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.203745126112127</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1739478288141547</v>
+        <v>0.1749780444567464</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.2393108578827693</v>
+        <v>0.2399460325688745</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>199</v>
@@ -2072,19 +2072,19 @@
         <v>204917</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>179730</v>
+        <v>180396</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>230118</v>
+        <v>232022</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1738956645105616</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1525212847426121</v>
+        <v>0.1530864035260849</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1952809364640348</v>
+        <v>0.1968969876252804</v>
       </c>
     </row>
     <row r="23">
@@ -2101,19 +2101,19 @@
         <v>434537</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>418199</v>
+        <v>418578</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>447883</v>
+        <v>447266</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.86638612729807</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.8338120260115098</v>
+        <v>0.8345679094324377</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.8929951862228768</v>
+        <v>0.8917654610176787</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>534</v>
@@ -2122,19 +2122,19 @@
         <v>538939</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>514866</v>
+        <v>514436</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>559107</v>
+        <v>558410</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.796254873887873</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.7606891421172306</v>
+        <v>0.7600539674311256</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.8260521711858452</v>
+        <v>0.8250219555432539</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>984</v>
@@ -2143,19 +2143,19 @@
         <v>973476</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>948275</v>
+        <v>946371</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>998663</v>
+        <v>997997</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.8261043354894384</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.8047190635359655</v>
+        <v>0.8031030123747197</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.8474787152573879</v>
+        <v>0.8469135964739153</v>
       </c>
     </row>
     <row r="24">
@@ -2489,19 +2489,19 @@
         <v>5264</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>1129</v>
+        <v>1112</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>12067</v>
+        <v>12557</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1198684563789878</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.02571408139403946</v>
+        <v>0.02531750627486008</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2747553044942213</v>
+        <v>0.2859261162890027</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>3</v>
@@ -2510,19 +2510,19 @@
         <v>3261</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>1021</v>
+        <v>1007</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>8835</v>
+        <v>8358</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1289487849443567</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.04038658899629601</v>
+        <v>0.03982229675052819</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.3493483407789849</v>
+        <v>0.3304807448019232</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>7</v>
@@ -2531,19 +2531,19 @@
         <v>8525</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>3240</v>
+        <v>3263</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>16009</v>
+        <v>15622</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1231865290453003</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.04681115219002282</v>
+        <v>0.04715447907930851</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2313272004275709</v>
+        <v>0.2257294499216222</v>
       </c>
     </row>
     <row r="5">
@@ -2560,19 +2560,19 @@
         <v>38654</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>31851</v>
+        <v>31361</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>42789</v>
+        <v>42806</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.8801315436210122</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.7252446955057787</v>
+        <v>0.7140738837109973</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9742859186059606</v>
+        <v>0.9746824937251399</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>19</v>
@@ -2581,19 +2581,19 @@
         <v>22028</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>16454</v>
+        <v>16931</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>24268</v>
+        <v>24282</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.8710512150556433</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.6506516592210151</v>
+        <v>0.669519255198077</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.959613411003704</v>
+        <v>0.9601777032494719</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>53</v>
@@ -2602,19 +2602,19 @@
         <v>60682</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>53198</v>
+        <v>53585</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>65967</v>
+        <v>65944</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.8768134709546997</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.7686727995724291</v>
+        <v>0.7742705500783778</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.953188847809977</v>
+        <v>0.9528455209206914</v>
       </c>
     </row>
     <row r="6">
@@ -2706,19 +2706,19 @@
         <v>7552</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>2434</v>
+        <v>3083</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>14906</v>
+        <v>15847</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1245627654735809</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.0401428295262498</v>
+        <v>0.0508493876109858</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.245859481105797</v>
+        <v>0.261364342775818</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>6</v>
@@ -2727,19 +2727,19 @@
         <v>6175</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>2109</v>
+        <v>2036</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>10913</v>
+        <v>11111</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.3266877866591751</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1115970346127595</v>
+        <v>0.1077397716680916</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.5773470648969834</v>
+        <v>0.5878099254459012</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>12</v>
@@ -2748,19 +2748,19 @@
         <v>13727</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>7180</v>
+        <v>7951</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>22518</v>
+        <v>23147</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1726002133890439</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.09027308124647275</v>
+        <v>0.09997351334667856</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2831309556216633</v>
+        <v>0.291041676140337</v>
       </c>
     </row>
     <row r="8">
@@ -2777,19 +2777,19 @@
         <v>53078</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>45724</v>
+        <v>44783</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>58196</v>
+        <v>57547</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.8754372345264191</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.754140518894204</v>
+        <v>0.7386356572241819</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9598571704737502</v>
+        <v>0.9491506123890141</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>11</v>
@@ -2798,19 +2798,19 @@
         <v>12727</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>7989</v>
+        <v>7791</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>16793</v>
+        <v>16866</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.6733122133408249</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.4226529351030167</v>
+        <v>0.4121900745540986</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8884029653872405</v>
+        <v>0.8922602283319084</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>56</v>
@@ -2819,19 +2819,19 @@
         <v>65804</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>57013</v>
+        <v>56384</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>72351</v>
+        <v>71580</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.8273997866109561</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.7168690443783369</v>
+        <v>0.7089583238596632</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9097269187535275</v>
+        <v>0.9000264866533215</v>
       </c>
     </row>
     <row r="9">
@@ -2923,19 +2923,19 @@
         <v>14735</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>8250</v>
+        <v>8321</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>24675</v>
+        <v>25624</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1241862048408697</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.06953011493381435</v>
+        <v>0.0701248132727421</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.20795798659345</v>
+        <v>0.215953738541457</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>14</v>
@@ -2944,19 +2944,19 @@
         <v>14565</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>8302</v>
+        <v>8489</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>21904</v>
+        <v>22375</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2666792845495032</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.152013075607291</v>
+        <v>0.1554257105307437</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.4010689268407845</v>
+        <v>0.4096836276184649</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>26</v>
@@ -2965,19 +2965,19 @@
         <v>29300</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>20514</v>
+        <v>19813</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>41151</v>
+        <v>41165</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1691003950242001</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1183948335012455</v>
+        <v>0.114351730295262</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2374981788980619</v>
+        <v>0.2375793519744767</v>
       </c>
     </row>
     <row r="11">
@@ -2994,19 +2994,19 @@
         <v>103918</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>93978</v>
+        <v>93029</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>110403</v>
+        <v>110332</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.8758137951591304</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.79204201340655</v>
+        <v>0.7840462614585429</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9304698850661857</v>
+        <v>0.9298751867272578</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>38</v>
@@ -3015,19 +3015,19 @@
         <v>40050</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>32711</v>
+        <v>32240</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>46313</v>
+        <v>46126</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.7333207154504968</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.5989310731592155</v>
+        <v>0.590316372381535</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.847986924392709</v>
+        <v>0.8445742894692563</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>128</v>
@@ -3036,19 +3036,19 @@
         <v>143968</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>132117</v>
+        <v>132103</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>152754</v>
+        <v>153455</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.8308996049758</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.7625018211019381</v>
+        <v>0.7624206480255237</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.8816051664987548</v>
+        <v>0.8856482697047381</v>
       </c>
     </row>
     <row r="12">
@@ -3140,19 +3140,19 @@
         <v>56619</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>43692</v>
+        <v>43476</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>72861</v>
+        <v>73053</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2443085663224645</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1885273513312549</v>
+        <v>0.187595045047998</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.3143921818952686</v>
+        <v>0.31521957719676</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>19</v>
@@ -3161,19 +3161,19 @@
         <v>20920</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>13633</v>
+        <v>13465</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>28814</v>
+        <v>28675</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.3481092933034065</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2268497420511457</v>
+        <v>0.2240582397417656</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.4794681766963569</v>
+        <v>0.4771555604144395</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>69</v>
@@ -3182,19 +3182,19 @@
         <v>77539</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>62092</v>
+        <v>63527</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>93980</v>
+        <v>94550</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2656824533561158</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.212753140307012</v>
+        <v>0.217672997942469</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.322016221376099</v>
+        <v>0.32397073029688</v>
       </c>
     </row>
     <row r="14">
@@ -3211,19 +3211,19 @@
         <v>175134</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>158892</v>
+        <v>158700</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>188061</v>
+        <v>188277</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.7556914336775354</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.6856078181047314</v>
+        <v>0.68478042280324</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.811472648668745</v>
+        <v>0.812404954952002</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>38</v>
@@ -3232,19 +3232,19 @@
         <v>39175</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>31281</v>
+        <v>31420</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>46462</v>
+        <v>46630</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.6518907066965935</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.5205318233036431</v>
+        <v>0.5228444395855606</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.7731502579488543</v>
+        <v>0.7759417602582348</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>203</v>
@@ -3253,19 +3253,19 @@
         <v>214309</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>197868</v>
+        <v>197298</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>229756</v>
+        <v>228321</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.7343175466438842</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.6779837786239007</v>
+        <v>0.6760292697031198</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.7872468596929877</v>
+        <v>0.782327002057531</v>
       </c>
     </row>
     <row r="15">
@@ -3357,19 +3357,19 @@
         <v>21216</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>13911</v>
+        <v>13657</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>29804</v>
+        <v>30197</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2065932354184886</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.135460147022969</v>
+        <v>0.1329817819948571</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2902128529335614</v>
+        <v>0.2940400456428069</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>67</v>
@@ -3378,19 +3378,19 @@
         <v>72729</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>58981</v>
+        <v>59237</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>86712</v>
+        <v>87068</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.3860360163214341</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.3130632599146347</v>
+        <v>0.3144210563626268</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.4602558425031987</v>
+        <v>0.4621469297152576</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>87</v>
@@ -3399,19 +3399,19 @@
         <v>93946</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>77455</v>
+        <v>77869</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>110224</v>
+        <v>110094</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.3227304265504061</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2660798768915202</v>
+        <v>0.2675030973501676</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.3786504495381575</v>
+        <v>0.3782048388544614</v>
       </c>
     </row>
     <row r="17">
@@ -3428,19 +3428,19 @@
         <v>81480</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>72892</v>
+        <v>72499</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>88785</v>
+        <v>89039</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.7934067645815114</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.7097871470664397</v>
+        <v>0.7059599543571931</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.8645398529770312</v>
+        <v>0.8670182180051429</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>110</v>
@@ -3449,19 +3449,19 @@
         <v>115671</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>101688</v>
+        <v>101332</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>129419</v>
+        <v>129163</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.613963983678566</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.5397441574968013</v>
+        <v>0.5378530702847425</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.686936740085365</v>
+        <v>0.6855789436373733</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>186</v>
@@ -3470,19 +3470,19 @@
         <v>197150</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>180872</v>
+        <v>181002</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>213641</v>
+        <v>213227</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.6772695734495939</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.6213495504618426</v>
+        <v>0.6217951611455387</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.7339201231084798</v>
+        <v>0.7324969026498325</v>
       </c>
     </row>
     <row r="18">
@@ -3587,19 +3587,19 @@
         <v>115770</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>98040</v>
+        <v>99177</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>134569</v>
+        <v>134678</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.2933090684804546</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.2483883054170479</v>
+        <v>0.2512681160280454</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.3409372714000952</v>
+        <v>0.3412116876955176</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>106</v>
@@ -3608,19 +3608,19 @@
         <v>115770</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>99308</v>
+        <v>97860</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>136024</v>
+        <v>135708</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.2918393699887608</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.2503409314093376</v>
+        <v>0.246690649652019</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.3428958350274007</v>
+        <v>0.3420990892734558</v>
       </c>
     </row>
     <row r="20">
@@ -3650,19 +3650,19 @@
         <v>278934</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>260135</v>
+        <v>260026</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>296664</v>
+        <v>295527</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.7066909315195454</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.659062728599905</v>
+        <v>0.6587883123044825</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.7516116945829523</v>
+        <v>0.7487318839719546</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>264</v>
@@ -3671,19 +3671,19 @@
         <v>280922</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>260668</v>
+        <v>260984</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>297384</v>
+        <v>298832</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.7081606300112393</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.6571041649725993</v>
+        <v>0.6579009107265448</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.7496590685906624</v>
+        <v>0.7533093503479811</v>
       </c>
     </row>
     <row r="21">
@@ -3775,19 +3775,19 @@
         <v>105387</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>86868</v>
+        <v>86271</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>126408</v>
+        <v>126219</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1883133287584055</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1552220075980543</v>
+        <v>0.1541556883794856</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.2258754894346823</v>
+        <v>0.2255376232233162</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>215</v>
@@ -3796,19 +3796,19 @@
         <v>233420</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>205880</v>
+        <v>208437</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>260113</v>
+        <v>261315</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.3145798705979229</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.2774644000313794</v>
+        <v>0.2809110154894944</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.3505548070425353</v>
+        <v>0.3521740929741592</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>307</v>
@@ -3817,19 +3817,19 @@
         <v>338807</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>306861</v>
+        <v>307365</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>371272</v>
+        <v>373593</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.2602919540027619</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.2357491683644068</v>
+        <v>0.2361360580494431</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.2852332267507171</v>
+        <v>0.287016588252391</v>
       </c>
     </row>
     <row r="23">
@@ -3846,19 +3846,19 @@
         <v>454250</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>433229</v>
+        <v>433418</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>472769</v>
+        <v>473366</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.8116866712415944</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.7741245105653179</v>
+        <v>0.7744623767766836</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.8447779924019457</v>
+        <v>0.8458443116205143</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>478</v>
@@ -3867,19 +3867,19 @@
         <v>508585</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>481892</v>
+        <v>480690</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>536125</v>
+        <v>533568</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.6854201294020771</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.6494451929574647</v>
+        <v>0.6478259070258409</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.7225355999686207</v>
+        <v>0.7190889845105057</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>890</v>
@@ -3888,19 +3888,19 @@
         <v>962835</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>930370</v>
+        <v>928049</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>994781</v>
+        <v>994277</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.7397080459972381</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.7147667732492836</v>
+        <v>0.7129834117476094</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.7642508316355935</v>
+        <v>0.7638639419505571</v>
       </c>
     </row>
     <row r="24">
@@ -4234,19 +4234,19 @@
         <v>8410</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>3315</v>
+        <v>3593</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>15827</v>
+        <v>16144</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.122507785298187</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.04829056502609391</v>
+        <v>0.05234381292443874</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2305581984861537</v>
+        <v>0.2351719525525819</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>7</v>
@@ -4255,19 +4255,19 @@
         <v>8333</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>3520</v>
+        <v>3598</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>14956</v>
+        <v>14619</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2259068455137183</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.09542316941158911</v>
+        <v>0.09753092453553233</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.4054537590211604</v>
+        <v>0.3963082541726661</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>14</v>
@@ -4276,19 +4276,19 @@
         <v>16743</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>9372</v>
+        <v>9620</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>25975</v>
+        <v>26008</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.158649402971032</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.08880877676133334</v>
+        <v>0.09115173949486127</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2461260468898757</v>
+        <v>0.2464387983063728</v>
       </c>
     </row>
     <row r="5">
@@ -4305,19 +4305,19 @@
         <v>60237</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>52820</v>
+        <v>52503</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>65332</v>
+        <v>65054</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.8774922147018129</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.769441801513846</v>
+        <v>0.7648280474474179</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9517094349739061</v>
+        <v>0.9476561870755613</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>22</v>
@@ -4326,19 +4326,19 @@
         <v>28555</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>21932</v>
+        <v>22269</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>33368</v>
+        <v>33290</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.7740931544862818</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.5945462409788388</v>
+        <v>0.6036917458273342</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9045768305884109</v>
+        <v>0.9024690754644676</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>82</v>
@@ -4347,19 +4347,19 @@
         <v>88792</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>79560</v>
+        <v>79527</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>96163</v>
+        <v>95915</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.841350597028968</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.7538739531101243</v>
+        <v>0.7535612016936272</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9111912232386672</v>
+        <v>0.9088482605051386</v>
       </c>
     </row>
     <row r="6">
@@ -4451,19 +4451,19 @@
         <v>8064</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>4021</v>
+        <v>4218</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>13810</v>
+        <v>14169</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1511648484599552</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.07538419471597529</v>
+        <v>0.07907311741455438</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2588910187056791</v>
+        <v>0.2656244997740634</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>6</v>
@@ -4472,19 +4472,19 @@
         <v>8156</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>3860</v>
+        <v>3566</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>13048</v>
+        <v>13149</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.4637287989348726</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2194777004843847</v>
+        <v>0.2027304274795835</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.7418602344018408</v>
+        <v>0.7476275871081695</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>15</v>
@@ -4493,19 +4493,19 @@
         <v>16220</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>10031</v>
+        <v>9230</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>25089</v>
+        <v>23708</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2286675028366396</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1414119830054279</v>
+        <v>0.1301272674956118</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3537102444226203</v>
+        <v>0.3342287436083312</v>
       </c>
     </row>
     <row r="8">
@@ -4522,19 +4522,19 @@
         <v>45280</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>39534</v>
+        <v>39175</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>49323</v>
+        <v>49126</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.8488351515400449</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.7411089812943209</v>
+        <v>0.7343755002259369</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9246158052840246</v>
+        <v>0.920926882585446</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>8</v>
@@ -4543,19 +4543,19 @@
         <v>9432</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>4540</v>
+        <v>4439</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>13728</v>
+        <v>14022</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.5362712010651275</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.2581397655981589</v>
+        <v>0.2523724128918306</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.7805222995156154</v>
+        <v>0.7972695725204167</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>54</v>
@@ -4564,19 +4564,19 @@
         <v>54712</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>45843</v>
+        <v>47224</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>60901</v>
+        <v>61702</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.7713324971633604</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.6462897555773807</v>
+        <v>0.6657712563916688</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8585880169945722</v>
+        <v>0.8698727325043882</v>
       </c>
     </row>
     <row r="9">
@@ -4668,19 +4668,19 @@
         <v>14989</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>8858</v>
+        <v>9288</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>23387</v>
+        <v>22173</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1246409420100623</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.07365426345614204</v>
+        <v>0.07723101494316049</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1944698030178149</v>
+        <v>0.1843707745720106</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>9</v>
@@ -4689,19 +4689,19 @@
         <v>11426</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>5619</v>
+        <v>5711</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>19014</v>
+        <v>19046</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2472634872983539</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1216058553237132</v>
+        <v>0.1235828286179185</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.4114829494963827</v>
+        <v>0.4121630941232196</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>26</v>
@@ -4710,19 +4710,19 @@
         <v>26415</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>18047</v>
+        <v>18668</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>36922</v>
+        <v>37365</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1586786096945126</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1084095697380462</v>
+        <v>0.1121415114460317</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2217948748723437</v>
+        <v>0.2244548170469362</v>
       </c>
     </row>
     <row r="11">
@@ -4739,19 +4739,19 @@
         <v>105272</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>96874</v>
+        <v>98088</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>111403</v>
+        <v>110973</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.8753590579899377</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8055301969821849</v>
+        <v>0.8156292254279894</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9263457365438579</v>
+        <v>0.9227689850568396</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>28</v>
@@ -4760,19 +4760,19 @@
         <v>34783</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>27195</v>
+        <v>27163</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>40590</v>
+        <v>40498</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.7527365127016461</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.5885170505036169</v>
+        <v>0.5878369058767805</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.878394144676287</v>
+        <v>0.8764171713820815</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>139</v>
@@ -4781,19 +4781,19 @@
         <v>140055</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>129548</v>
+        <v>129105</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>148423</v>
+        <v>147802</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.8413213903054875</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.7782051251276563</v>
+        <v>0.7755451829530637</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.8915904302619537</v>
+        <v>0.8878584885539682</v>
       </c>
     </row>
     <row r="12">
@@ -4885,19 +4885,19 @@
         <v>35016</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>25870</v>
+        <v>25583</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>45579</v>
+        <v>45704</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1717668857894563</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1269017380118536</v>
+        <v>0.1254952193841752</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.223583397564152</v>
+        <v>0.2241954698034944</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>20</v>
@@ -4906,19 +4906,19 @@
         <v>26627</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>17615</v>
+        <v>18221</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>37297</v>
+        <v>37882</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2688306498615662</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.177849166249922</v>
+        <v>0.1839631388405392</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3765645160794293</v>
+        <v>0.3824650292961915</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>60</v>
@@ -4927,19 +4927,19 @@
         <v>61642</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>48631</v>
+        <v>47437</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>76989</v>
+        <v>76468</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2035058132603111</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1605493701584449</v>
+        <v>0.1566092725348703</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2541725500388675</v>
+        <v>0.252450389230612</v>
       </c>
     </row>
     <row r="14">
@@ -4956,19 +4956,19 @@
         <v>168840</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>158277</v>
+        <v>158152</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>177986</v>
+        <v>178273</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8282331142105437</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7764166024358479</v>
+        <v>0.7758045301965055</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8730982619881463</v>
+        <v>0.8745047806158247</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>64</v>
@@ -4977,19 +4977,19 @@
         <v>72419</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>61749</v>
+        <v>61164</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>81431</v>
+        <v>80825</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.7311693501384339</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.6234354839205707</v>
+        <v>0.6175349707038079</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.822150833750078</v>
+        <v>0.8160368611594604</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>242</v>
@@ -4998,19 +4998,19 @@
         <v>241260</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>225913</v>
+        <v>226434</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>254271</v>
+        <v>255465</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.796494186739689</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.7458274499611323</v>
+        <v>0.7475496107693881</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8394506298415549</v>
+        <v>0.8433907274651298</v>
       </c>
     </row>
     <row r="15">
@@ -5102,19 +5102,19 @@
         <v>34150</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>25192</v>
+        <v>25141</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>45194</v>
+        <v>44773</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.235160549176708</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1734719036909629</v>
+        <v>0.1731246232297325</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.3112067235614588</v>
+        <v>0.3083125566605033</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>40</v>
@@ -5123,19 +5123,19 @@
         <v>47750</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>35430</v>
+        <v>35672</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>60092</v>
+        <v>60313</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2992772538730261</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2220612226431243</v>
+        <v>0.2235805782745176</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.3766329338109383</v>
+        <v>0.3780188770848757</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>77</v>
@@ -5144,19 +5144,19 @@
         <v>81900</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>67135</v>
+        <v>66192</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>98542</v>
+        <v>98278</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2687261949132949</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2202788482555232</v>
+        <v>0.2171845749676836</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.3233324976997007</v>
+        <v>0.3224666105732379</v>
       </c>
     </row>
     <row r="17">
@@ -5173,19 +5173,19 @@
         <v>111071</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>100027</v>
+        <v>100448</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>120029</v>
+        <v>120080</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.7648394508232921</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.688793276438541</v>
+        <v>0.6916874433394969</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.8265280963090371</v>
+        <v>0.8268753767702676</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>99</v>
@@ -5194,19 +5194,19 @@
         <v>111800</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>99458</v>
+        <v>99237</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>124120</v>
+        <v>123878</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.7007227461269739</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.6233670661890617</v>
+        <v>0.6219811229151242</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.7779387773568758</v>
+        <v>0.7764194217254817</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>221</v>
@@ -5215,19 +5215,19 @@
         <v>222871</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>206229</v>
+        <v>206493</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>237636</v>
+        <v>238579</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.731273805086705</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.6766675023002993</v>
+        <v>0.6775333894267621</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.7797211517444768</v>
+        <v>0.7828154250323165</v>
       </c>
     </row>
     <row r="18">
@@ -5328,19 +5328,19 @@
         <v>134719</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>113839</v>
+        <v>114538</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>154813</v>
+        <v>157193</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.3261312666515748</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.275583157759571</v>
+        <v>0.2772767860937148</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.3747753471891407</v>
+        <v>0.3805355496995039</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>108</v>
@@ -5349,19 +5349,19 @@
         <v>134719</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>113839</v>
+        <v>114538</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>154813</v>
+        <v>157193</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.3261312666515748</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.275583157759571</v>
+        <v>0.2772767860937148</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.3747753471891407</v>
+        <v>0.3805355496995039</v>
       </c>
     </row>
     <row r="20">
@@ -5387,19 +5387,19 @@
         <v>278364</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>258270</v>
+        <v>255890</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>299244</v>
+        <v>298545</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.6738687333484252</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.6252246528108591</v>
+        <v>0.619464450300496</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.7244168422404289</v>
+        <v>0.7227232139062852</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>239</v>
@@ -5408,19 +5408,19 @@
         <v>278364</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>258270</v>
+        <v>255890</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>299244</v>
+        <v>298545</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.6738687333484252</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.6252246528108591</v>
+        <v>0.619464450300496</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.7244168422404289</v>
+        <v>0.7227232139062852</v>
       </c>
     </row>
     <row r="21">
@@ -5500,19 +5500,19 @@
         <v>100629</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>81899</v>
+        <v>84468</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>117316</v>
+        <v>118358</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1701741720197465</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1385003002099361</v>
+        <v>0.1428452591894323</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1983937882390514</v>
+        <v>0.2001554405694869</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>190</v>
@@ -5521,19 +5521,19 @@
         <v>237011</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>208464</v>
+        <v>206260</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>268559</v>
+        <v>261559</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.3068639751987224</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.2699032678939315</v>
+        <v>0.2670496084042505</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.3477100523049392</v>
+        <v>0.3386470161361793</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>300</v>
@@ -5542,19 +5542,19 @@
         <v>337639</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>306261</v>
+        <v>307384</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>372988</v>
+        <v>373887</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.247592153019708</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.2245819839976737</v>
+        <v>0.2254061023032352</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.2735136138548167</v>
+        <v>0.2741722937028538</v>
       </c>
     </row>
     <row r="23">
@@ -5571,19 +5571,19 @@
         <v>490699</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>474012</v>
+        <v>472970</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>509429</v>
+        <v>506860</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.8298258279802535</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.8016062117609483</v>
+        <v>0.7998445594305126</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.8614996997900637</v>
+        <v>0.8571547408105674</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>460</v>
@@ -5592,19 +5592,19 @@
         <v>535353</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>503805</v>
+        <v>510805</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>563900</v>
+        <v>566104</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.6931360248012776</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.6522899476950608</v>
+        <v>0.6613529838638206</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.7300967321060685</v>
+        <v>0.7329503915957495</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>977</v>
@@ -5613,19 +5613,19 @@
         <v>1026053</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>990704</v>
+        <v>989805</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>1057431</v>
+        <v>1056308</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.7524078469802919</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.7264863861451835</v>
+        <v>0.7258277062971463</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.7754180160023264</v>
+        <v>0.7745938976967656</v>
       </c>
     </row>
     <row r="24">
@@ -5959,19 +5959,19 @@
         <v>15152</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>10112</v>
+        <v>10216</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>22546</v>
+        <v>22427</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.125844598467989</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.08398683704995717</v>
+        <v>0.08484712652414865</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1872544736068036</v>
+        <v>0.1862667737577968</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>21</v>
@@ -5980,19 +5980,19 @@
         <v>13576</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>8277</v>
+        <v>8769</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>19781</v>
+        <v>20189</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.1820895584396598</v>
+        <v>0.1820895584396599</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1110091541341031</v>
+        <v>0.1176092157727005</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2653098139546045</v>
+        <v>0.2707741765692139</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>44</v>
@@ -6001,19 +6001,19 @@
         <v>28728</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>20989</v>
+        <v>21469</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>37357</v>
+        <v>38184</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1473544816359383</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1076599381216833</v>
+        <v>0.1101209984483418</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1916132523891239</v>
+        <v>0.1958557260397117</v>
       </c>
     </row>
     <row r="5">
@@ -6030,19 +6030,19 @@
         <v>105249</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>97855</v>
+        <v>97974</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>110289</v>
+        <v>110185</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.874155401532011</v>
+        <v>0.8741554015320109</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8127455263931964</v>
+        <v>0.8137332262422032</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9160131629500428</v>
+        <v>0.9151528734758514</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>111</v>
@@ -6051,19 +6051,19 @@
         <v>60983</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>54778</v>
+        <v>54370</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>66282</v>
+        <v>65790</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.8179104415603402</v>
+        <v>0.8179104415603403</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.7346901860453957</v>
+        <v>0.7292258234307861</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.8889908458658972</v>
+        <v>0.8823907842272996</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>259</v>
@@ -6072,19 +6072,19 @@
         <v>166232</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>157603</v>
+        <v>156776</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>173971</v>
+        <v>173491</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.8526455183640617</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8083867476108761</v>
+        <v>0.8041442739602883</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8923400618783166</v>
+        <v>0.8898790015516579</v>
       </c>
     </row>
     <row r="6">
@@ -6176,19 +6176,19 @@
         <v>15247</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>9696</v>
+        <v>9750</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>22076</v>
+        <v>22596</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1456038149718852</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.09259692993121788</v>
+        <v>0.09311360140112228</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2108195896338268</v>
+        <v>0.2157811622972313</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>27</v>
@@ -6197,19 +6197,19 @@
         <v>15480</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>10941</v>
+        <v>10578</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>21005</v>
+        <v>20916</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2812419754401435</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1987760950729144</v>
+        <v>0.1921936245816921</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3816357678709463</v>
+        <v>0.3800209228705424</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>49</v>
@@ -6218,19 +6218,19 @@
         <v>30726</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>23789</v>
+        <v>22936</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>39415</v>
+        <v>39586</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1923346987131236</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1489117952034386</v>
+        <v>0.1435676766355777</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2467224336223192</v>
+        <v>0.2477919682268151</v>
       </c>
     </row>
     <row r="8">
@@ -6247,19 +6247,19 @@
         <v>89468</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>82639</v>
+        <v>82119</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>95019</v>
+        <v>94965</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.8543961850281149</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.789180410366173</v>
+        <v>0.7842188377027687</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9074030700687818</v>
+        <v>0.906886398598878</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>70</v>
@@ -6268,19 +6268,19 @@
         <v>39560</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>34035</v>
+        <v>34124</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>44099</v>
+        <v>44462</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.7187580245598565</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.6183642321290538</v>
+        <v>0.6199790771294575</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8012239049270858</v>
+        <v>0.8078063754183079</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>195</v>
@@ -6289,19 +6289,19 @@
         <v>129029</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>120340</v>
+        <v>120169</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>135966</v>
+        <v>136819</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.8076653012868762</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.7532775663776806</v>
+        <v>0.7522080317731846</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8510882047965617</v>
+        <v>0.8564323233644223</v>
       </c>
     </row>
     <row r="9">
@@ -6393,19 +6393,19 @@
         <v>24732</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>17406</v>
+        <v>18246</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>32781</v>
+        <v>33112</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2198978670058014</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.154763717189605</v>
+        <v>0.1622293885914058</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2914628322478248</v>
+        <v>0.294407837641596</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>42</v>
@@ -6414,19 +6414,19 @@
         <v>23679</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>18044</v>
+        <v>18274</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>29687</v>
+        <v>29686</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.4084725281991632</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.3112658003554766</v>
+        <v>0.3152274513272658</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.51210473976225</v>
+        <v>0.5120887871485784</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>81</v>
@@ -6435,19 +6435,19 @@
         <v>48411</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>39751</v>
+        <v>39991</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>57638</v>
+        <v>58413</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.2840356796685152</v>
+        <v>0.2840356796685151</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2332250393482201</v>
+        <v>0.2346325306285556</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.3381705641330045</v>
+        <v>0.3427171614007626</v>
       </c>
     </row>
     <row r="11">
@@ -6464,19 +6464,19 @@
         <v>87739</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>79690</v>
+        <v>79359</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>95065</v>
+        <v>94225</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.7801021329941985</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.7085371677521752</v>
+        <v>0.7055921623584041</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8452362828103932</v>
+        <v>0.8377706114085942</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>64</v>
@@ -6485,19 +6485,19 @@
         <v>34291</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>28283</v>
+        <v>28284</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>39926</v>
+        <v>39696</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.5915274718008369</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.4878952602377499</v>
+        <v>0.4879112128514216</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.6887341996445229</v>
+        <v>0.6847725486727343</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>189</v>
@@ -6506,19 +6506,19 @@
         <v>122030</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>112803</v>
+        <v>112028</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>130690</v>
+        <v>130450</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.7159643203314849</v>
+        <v>0.7159643203314848</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.6618294358669953</v>
+        <v>0.6572828385992378</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.76677496065178</v>
+        <v>0.7653674693714443</v>
       </c>
     </row>
     <row r="12">
@@ -6610,19 +6610,19 @@
         <v>63222</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>52507</v>
+        <v>52042</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>75742</v>
+        <v>74564</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2451930089819765</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2036353348912416</v>
+        <v>0.2018328381977153</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2937490912092949</v>
+        <v>0.2891787211600216</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>75</v>
@@ -6631,19 +6631,19 @@
         <v>38061</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>30895</v>
+        <v>31527</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>45492</v>
+        <v>45475</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2921831773613368</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2371713091976795</v>
+        <v>0.2420256721300035</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3492237250936955</v>
+        <v>0.3490978675848924</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>169</v>
@@ -6652,19 +6652,19 @@
         <v>101284</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>87223</v>
+        <v>88324</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>115263</v>
+        <v>116028</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2609646615970483</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2247370020533275</v>
+        <v>0.227573010977935</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2969842119952157</v>
+        <v>0.298954538269445</v>
       </c>
     </row>
     <row r="14">
@@ -6681,19 +6681,19 @@
         <v>194625</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>182105</v>
+        <v>183283</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>205340</v>
+        <v>205805</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.7548069910180235</v>
+        <v>0.7548069910180234</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.706250908790705</v>
+        <v>0.7108212788399785</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.7963646651087584</v>
+        <v>0.7981671618022848</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>183</v>
@@ -6702,19 +6702,19 @@
         <v>92204</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>84773</v>
+        <v>84790</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>99370</v>
+        <v>98738</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.7078168226386632</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.650776274906304</v>
+        <v>0.6509021324151075</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.7628286908023203</v>
+        <v>0.7579743278699964</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>457</v>
@@ -6723,19 +6723,19 @@
         <v>286828</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>272849</v>
+        <v>272084</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>300889</v>
+        <v>299788</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.7390353384029518</v>
+        <v>0.7390353384029519</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.7030157880047841</v>
+        <v>0.7010454617305552</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.7752629979466723</v>
+        <v>0.7724269890220653</v>
       </c>
     </row>
     <row r="15">
@@ -6827,19 +6827,19 @@
         <v>25977</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>19296</v>
+        <v>19116</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>33562</v>
+        <v>32925</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.2577294945900663</v>
+        <v>0.2577294945900664</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1914401832830587</v>
+        <v>0.1896558935101353</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.3329840191757916</v>
+        <v>0.3266561136580082</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>206</v>
@@ -6848,19 +6848,19 @@
         <v>101311</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>91456</v>
+        <v>91026</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>111261</v>
+        <v>112450</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.4644238289054199</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.4192459104107711</v>
+        <v>0.4172748680809029</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.5100353453077312</v>
+        <v>0.5154880721548931</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>250</v>
@@ -6869,19 +6869,19 @@
         <v>127289</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>113091</v>
+        <v>115460</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>139467</v>
+        <v>141025</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.3991023634886717</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.3545859550159515</v>
+        <v>0.3620144386774848</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.4372872863302897</v>
+        <v>0.4421723654294845</v>
       </c>
     </row>
     <row r="17">
@@ -6898,19 +6898,19 @@
         <v>74816</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>67231</v>
+        <v>67868</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>81497</v>
+        <v>81677</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.7422705054099336</v>
+        <v>0.7422705054099338</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.6670159808242084</v>
+        <v>0.6733438863419916</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.8085598167169414</v>
+        <v>0.8103441064898644</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>233</v>
@@ -6919,19 +6919,19 @@
         <v>116832</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>106882</v>
+        <v>105693</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>126687</v>
+        <v>127117</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.53557617109458</v>
+        <v>0.5355761710945801</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.4899646546922686</v>
+        <v>0.4845119278451069</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.5807540895892289</v>
+        <v>0.5827251319190973</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>337</v>
@@ -6940,19 +6940,19 @@
         <v>191648</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>179470</v>
+        <v>177912</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>205846</v>
+        <v>203477</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.6008976365113282</v>
+        <v>0.6008976365113281</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.5627127136697103</v>
+        <v>0.5578276345705152</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.6454140449840484</v>
+        <v>0.6379855613225153</v>
       </c>
     </row>
     <row r="18">
@@ -7044,7 +7044,7 @@
         <v>2204</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>574</v>
+        <v>620</v>
       </c>
       <c r="F19" s="5" t="n">
         <v>3276</v>
@@ -7053,7 +7053,7 @@
         <v>0.6727456091529725</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1753445647139325</v>
+        <v>0.1892256228645394</v>
       </c>
       <c r="I19" s="6" t="n">
         <v>1</v>
@@ -7065,19 +7065,19 @@
         <v>136603</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>123966</v>
+        <v>122665</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>151111</v>
+        <v>150934</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.3978824250503845</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.3610771243040112</v>
+        <v>0.357285384824293</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.4401406170840696</v>
+        <v>0.4396260738946104</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>246</v>
@@ -7086,19 +7086,19 @@
         <v>138807</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>124546</v>
+        <v>125007</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>151070</v>
+        <v>152108</v>
       </c>
       <c r="U19" s="6" t="n">
-        <v>0.4004805072117267</v>
+        <v>0.4004805072117268</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.3593361976483596</v>
+        <v>0.3606658049602278</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.4358632911749302</v>
+        <v>0.4388566762498251</v>
       </c>
     </row>
     <row r="20">
@@ -7118,7 +7118,7 @@
         <v>0</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>2707</v>
+        <v>2656</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.3272543908470275</v>
@@ -7127,7 +7127,7 @@
         <v>0</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.8263712328659629</v>
+        <v>0.8107743771354606</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>390</v>
@@ -7136,19 +7136,19 @@
         <v>206721</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>192213</v>
+        <v>192390</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>219358</v>
+        <v>220659</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.6021175749496156</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.5598593829159307</v>
+        <v>0.5603739261053896</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.6389228756959889</v>
+        <v>0.6427146151757072</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>392</v>
@@ -7157,19 +7157,19 @@
         <v>207793</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>195530</v>
+        <v>194492</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>222054</v>
+        <v>221593</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.5995194927882732</v>
+        <v>0.5995194927882733</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.5641367088250697</v>
+        <v>0.5611433237501746</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.64066380235164</v>
+        <v>0.6393341950397716</v>
       </c>
     </row>
     <row r="21">
@@ -7261,19 +7261,19 @@
         <v>146535</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>129210</v>
+        <v>129139</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>164724</v>
+        <v>165416</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.2094836588079534</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.184716168357937</v>
+        <v>0.184615772488068</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.2354869862741671</v>
+        <v>0.2364759979902573</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>613</v>
@@ -7282,19 +7282,19 @@
         <v>328710</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>306854</v>
+        <v>308195</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>350249</v>
+        <v>349603</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.3738308635142663</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.3489751182089426</v>
+        <v>0.350500108440859</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.3983266890053185</v>
+        <v>0.3975913919875552</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>839</v>
@@ -7303,19 +7303,19 @@
         <v>475245</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>445257</v>
+        <v>447031</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>503684</v>
+        <v>504722</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.3010153423234632</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.2820213481658679</v>
+        <v>0.2831451401731265</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.3190287949159415</v>
+        <v>0.3196863849868299</v>
       </c>
     </row>
     <row r="23">
@@ -7332,19 +7332,19 @@
         <v>552969</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>534780</v>
+        <v>534088</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>570294</v>
+        <v>570365</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>0.7905163411920466</v>
+        <v>0.7905163411920465</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.7645130137258326</v>
+        <v>0.7635240020097427</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.815283831642063</v>
+        <v>0.815384227511932</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>1051</v>
@@ -7353,19 +7353,19 @@
         <v>550591</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>529052</v>
+        <v>529698</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>572447</v>
+        <v>571106</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.6261691364857339</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.6016733109946815</v>
+        <v>0.6024086080124449</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.6510248817910573</v>
+        <v>0.6494998915591411</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>1829</v>
@@ -7374,19 +7374,19 @@
         <v>1103560</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>1075121</v>
+        <v>1074083</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>1133548</v>
+        <v>1131774</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.6989846576765367</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.6809712050840585</v>
+        <v>0.6803136150131702</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.7179786518341319</v>
+        <v>0.7168548598268735</v>
       </c>
     </row>
     <row r="24">
